--- a/sofaplayer/Bundesliga/TSG Hoffenheim_stats.xlsx
+++ b/sofaplayer/Bundesliga/TSG Hoffenheim_stats.xlsx
@@ -1035,16 +1035,16 @@
         <v>67647</v>
       </c>
       <c r="E2" t="n">
-        <v>7.1333333333333</v>
+        <v>7.1454545454545</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="n">
-        <v>1261</v>
+        <v>1347</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
@@ -1053,22 +1053,22 @@
         <v>9</v>
       </c>
       <c r="K2" t="n">
-        <v>6.9637</v>
+        <v>7.2114</v>
       </c>
       <c r="L2" t="n">
-        <v>140.11111111111</v>
+        <v>149.66666666667</v>
       </c>
       <c r="M2" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" t="n">
         <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>23.684210526316</v>
+        <v>21.428571428571</v>
       </c>
       <c r="Q2" t="n">
         <v>3</v>
@@ -1101,46 +1101,46 @@
         <v>4</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.93071235</v>
+        <v>3.10759235</v>
       </c>
       <c r="AB2" t="n">
-        <v>785</v>
+        <v>829</v>
       </c>
       <c r="AC2" t="n">
         <v>5</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="n">
-        <v>485</v>
+        <v>512</v>
       </c>
       <c r="AF2" t="n">
-        <v>84.93870402802099</v>
+        <v>85.333333333333</v>
       </c>
       <c r="AG2" t="n">
-        <v>571</v>
+        <v>600</v>
       </c>
       <c r="AH2" t="n">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="AI2" t="n">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="AJ2" t="n">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
-        <v>61.904761904762</v>
+        <v>65.217391304348</v>
       </c>
       <c r="AM2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN2" t="n">
-        <v>29.824561403509</v>
+        <v>30</v>
       </c>
       <c r="AO2" t="n">
         <v>6</v>
@@ -1149,10 +1149,10 @@
         <v>4</v>
       </c>
       <c r="AQ2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AS2" t="n">
         <v>5</v>
@@ -1161,7 +1161,7 @@
         <v>7</v>
       </c>
       <c r="AU2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ2" t="n">
-        <v>52.631578947368</v>
+        <v>57.142857142857</v>
       </c>
       <c r="BA2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BB2" t="n">
-        <v>40</v>
+        <v>41.176470588235</v>
       </c>
       <c r="BC2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BD2" t="n">
-        <v>43.396226415094</v>
+        <v>44.642857142857</v>
       </c>
       <c r="BE2" t="n">
         <v>3</v>
@@ -1197,7 +1197,7 @@
         <v>25</v>
       </c>
       <c r="BG2" t="n">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="BH2" t="n">
         <v>3</v>
@@ -1206,7 +1206,7 @@
         <v>9</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK2" t="n">
         <v>1</v>
@@ -1227,16 +1227,16 @@
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>149.8</v>
+        <v>157.2</v>
       </c>
       <c r="BR2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS2" t="n">
         <v>13</v>
       </c>
       <c r="BT2" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
@@ -1254,19 +1254,19 @@
         <v>2</v>
       </c>
       <c r="BZ2" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="CA2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CB2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CC2" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="CD2" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="CR2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="CS2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="CT2" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="CU2" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="CV2" t="n">
         <v>9</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="DA2" t="n">
         <v>2</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="DG2" t="n">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1391,40 +1391,40 @@
         <v>1010117</v>
       </c>
       <c r="E3" t="n">
-        <v>6.835</v>
+        <v>6.852380952381</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="n">
-        <v>1359</v>
+        <v>1433</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K3" t="n">
-        <v>5.3096</v>
+        <v>5.6891</v>
       </c>
       <c r="L3" t="n">
-        <v>226.5</v>
+        <v>204.71428571429</v>
       </c>
       <c r="M3" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O3" t="n">
         <v>6</v>
       </c>
       <c r="P3" t="n">
-        <v>14.285714285714</v>
+        <v>15.217391304348</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1436,13 +1436,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
         <v>1</v>
@@ -1457,10 +1457,10 @@
         <v>4</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.68480283</v>
+        <v>2.69591183</v>
       </c>
       <c r="AB3" t="n">
-        <v>608</v>
+        <v>648</v>
       </c>
       <c r="AC3" t="n">
         <v>6</v>
@@ -1469,28 +1469,28 @@
         <v>24</v>
       </c>
       <c r="AE3" t="n">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="AF3" t="n">
-        <v>69.02173913043499</v>
+        <v>68.702290076336</v>
       </c>
       <c r="AG3" t="n">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="AH3" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="n">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="AJ3" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AK3" t="n">
         <v>5</v>
       </c>
       <c r="AL3" t="n">
-        <v>55.555555555556</v>
+        <v>50</v>
       </c>
       <c r="AM3" t="n">
         <v>3</v>
@@ -1511,10 +1511,10 @@
         <v>49</v>
       </c>
       <c r="AS3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AT3" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -1532,34 +1532,34 @@
         <v>10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>38.461538461538</v>
+        <v>37.037037037037</v>
       </c>
       <c r="BA3" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="BB3" t="n">
-        <v>37.790697674419</v>
+        <v>38.202247191011</v>
       </c>
       <c r="BC3" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BD3" t="n">
-        <v>44.444444444444</v>
+        <v>43.75</v>
       </c>
       <c r="BE3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BF3" t="n">
-        <v>26.5625</v>
+        <v>28.787878787879</v>
       </c>
       <c r="BG3" t="n">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="BH3" t="n">
         <v>14</v>
       </c>
       <c r="BI3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BJ3" t="n">
         <v>9</v>
@@ -1583,37 +1583,37 @@
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>136.7</v>
+        <v>143.9</v>
       </c>
       <c r="BR3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS3" t="n">
+        <v>11</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>123</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>19</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>36</v>
+      </c>
+      <c r="CA3" t="n">
         <v>10</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>114</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>17</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>34</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>8</v>
       </c>
       <c r="CB3" t="n">
         <v>21</v>
@@ -1667,13 +1667,13 @@
         <v>24</v>
       </c>
       <c r="CS3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CT3" t="n">
         <v>4</v>
       </c>
       <c r="CU3" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="CV3" t="n">
         <v>47</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="DA3" t="n">
         <v>4</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="DG3" t="n">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -2103,16 +2103,16 @@
         <v>1418703</v>
       </c>
       <c r="E5" t="n">
-        <v>6.56</v>
+        <v>6.53125</v>
       </c>
       <c r="F5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2124,7 +2124,7 @@
         <v>0.7511</v>
       </c>
       <c r="L5" t="n">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="M5" t="n">
         <v>6</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.2714031</v>
+        <v>0.5480961</v>
       </c>
       <c r="AB5" t="n">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="AC5" t="n">
         <v>1</v>
@@ -2181,28 +2181,28 @@
         <v>2</v>
       </c>
       <c r="AE5" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AF5" t="n">
-        <v>72.941176470588</v>
+        <v>73.333333333333</v>
       </c>
       <c r="AG5" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI5" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AJ5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS5" t="n">
         <v>1</v>
@@ -2250,13 +2250,13 @@
         <v>26</v>
       </c>
       <c r="BB5" t="n">
-        <v>40.625</v>
+        <v>39.393939393939</v>
       </c>
       <c r="BC5" t="n">
         <v>16</v>
       </c>
       <c r="BD5" t="n">
-        <v>42.105263157895</v>
+        <v>40</v>
       </c>
       <c r="BE5" t="n">
         <v>10</v>
@@ -2265,16 +2265,16 @@
         <v>38.461538461538</v>
       </c>
       <c r="BG5" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BH5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BI5" t="n">
         <v>7</v>
       </c>
       <c r="BJ5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK5" t="n">
         <v>1</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>98.40000000000001</v>
+        <v>104.5</v>
       </c>
       <c r="BR5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS5" t="n">
         <v>2</v>
       </c>
       <c r="BT5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
@@ -2385,7 +2385,7 @@
         <v>3</v>
       </c>
       <c r="CU5" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="CV5" t="n">
         <v>16</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DA5" t="n">
         <v>2</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="DG5" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2815,16 +2815,16 @@
         <v>254297</v>
       </c>
       <c r="E7" t="n">
-        <v>6.5153846153846</v>
+        <v>6.5214285714286</v>
       </c>
       <c r="F7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -2833,13 +2833,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5108</v>
+        <v>0.5526</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="n">
         <v>2</v>
@@ -2881,10 +2881,10 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.6737405400000001</v>
+        <v>0.6749917600000001</v>
       </c>
       <c r="AB7" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AC7" t="n">
         <v>2</v>
@@ -2893,22 +2893,22 @@
         <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AF7" t="n">
-        <v>82.051282051282</v>
+        <v>83.333333333333</v>
       </c>
       <c r="AG7" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AH7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
@@ -2935,13 +2935,13 @@
         <v>2</v>
       </c>
       <c r="AS7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV7" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>0</v>
       </c>
       <c r="AY7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ7" t="n">
         <v>100</v>
       </c>
       <c r="BA7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB7" t="n">
-        <v>22.727272727273</v>
+        <v>25</v>
       </c>
       <c r="BC7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD7" t="n">
-        <v>35.714285714286</v>
+        <v>37.5</v>
       </c>
       <c r="BE7" t="n">
         <v>0</v>
@@ -3007,10 +3007,10 @@
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>84.7</v>
+        <v>91.3</v>
       </c>
       <c r="BR7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BS7" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>3</v>
       </c>
       <c r="CA7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CB7" t="n">
         <v>4</v>
@@ -3091,13 +3091,13 @@
         <v>2</v>
       </c>
       <c r="CS7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CT7" t="n">
         <v>1</v>
       </c>
       <c r="CU7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CV7" t="n">
         <v>8</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="DG7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3171,16 +3171,16 @@
         <v>1568123</v>
       </c>
       <c r="E8" t="n">
-        <v>6.8941176470588</v>
+        <v>6.9</v>
       </c>
       <c r="F8" t="n">
+        <v>18</v>
+      </c>
+      <c r="G8" t="n">
         <v>17</v>
       </c>
-      <c r="G8" t="n">
-        <v>16</v>
-      </c>
       <c r="H8" t="n">
-        <v>1279</v>
+        <v>1352</v>
       </c>
       <c r="I8" t="n">
         <v>2</v>
@@ -3189,13 +3189,13 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3887</v>
+        <v>2.4372</v>
       </c>
       <c r="L8" t="n">
-        <v>639.5</v>
+        <v>676</v>
       </c>
       <c r="M8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N8" t="n">
         <v>7</v>
@@ -3204,7 +3204,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>9.523809523809501</v>
+        <v>9.090909090909101</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -3237,58 +3237,58 @@
         <v>5</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.3369887</v>
+        <v>2.4465987</v>
       </c>
       <c r="AB8" t="n">
-        <v>703</v>
+        <v>741</v>
       </c>
       <c r="AC8" t="n">
         <v>6</v>
       </c>
       <c r="AD8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE8" t="n">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="AF8" t="n">
-        <v>76.25698324022299</v>
+        <v>76.178010471204</v>
       </c>
       <c r="AG8" t="n">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="AH8" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="n">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="AJ8" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AK8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL8" t="n">
-        <v>61.538461538462</v>
+        <v>62.5</v>
       </c>
       <c r="AM8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN8" t="n">
-        <v>37.037037037037</v>
+        <v>35.593220338983</v>
       </c>
       <c r="AO8" t="n">
         <v>4</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AQ8" t="n">
         <v>14</v>
       </c>
       <c r="AR8" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AS8" t="n">
         <v>7</v>
@@ -3309,34 +3309,34 @@
         <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AZ8" t="n">
-        <v>42.028985507246</v>
+        <v>43.661971830986</v>
       </c>
       <c r="BA8" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="BB8" t="n">
-        <v>43.396226415094</v>
+        <v>44.343891402715</v>
       </c>
       <c r="BC8" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="BD8" t="n">
-        <v>40.490797546012</v>
+        <v>42.011834319527</v>
       </c>
       <c r="BE8" t="n">
+        <v>27</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>51.923076923077</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>247</v>
+      </c>
+      <c r="BH8" t="n">
         <v>26</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>53.061224489796</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>235</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>25</v>
       </c>
       <c r="BI8" t="n">
         <v>20</v>
@@ -3345,7 +3345,7 @@
         <v>5</v>
       </c>
       <c r="BK8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL8" t="n">
         <v>0</v>
@@ -3363,22 +3363,22 @@
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>117.2</v>
+        <v>124.2</v>
       </c>
       <c r="BR8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS8" t="n">
         <v>7</v>
       </c>
       <c r="BT8" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="BZ8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CA8" t="n">
         <v>3</v>
@@ -3399,10 +3399,10 @@
         <v>25</v>
       </c>
       <c r="CC8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CD8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CE8" t="n">
         <v>0</v>
@@ -3444,19 +3444,19 @@
         <v>0</v>
       </c>
       <c r="CR8" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CS8" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="CT8" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="CU8" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="CV8" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CW8" t="n">
         <v>0</v>
@@ -3468,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="DA8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="DB8" t="n">
-        <v>58.823529411765</v>
+        <v>55</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="DG8" t="n">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3883,16 +3883,16 @@
         <v>1493305</v>
       </c>
       <c r="E10" t="n">
-        <v>6.9238095238095</v>
+        <v>6.9363636363636</v>
       </c>
       <c r="F10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" t="n">
-        <v>1830</v>
+        <v>1920</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -3949,64 +3949,64 @@
         <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.10034624</v>
+        <v>1.21802524</v>
       </c>
       <c r="AB10" t="n">
-        <v>1457</v>
+        <v>1543</v>
       </c>
       <c r="AC10" t="n">
         <v>1</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="n">
-        <v>1071</v>
+        <v>1137</v>
       </c>
       <c r="AF10" t="n">
-        <v>88.00328677074801</v>
+        <v>88.207913110939</v>
       </c>
       <c r="AG10" t="n">
-        <v>1217</v>
+        <v>1289</v>
       </c>
       <c r="AH10" t="n">
-        <v>564</v>
+        <v>595</v>
       </c>
       <c r="AI10" t="n">
-        <v>507</v>
+        <v>542</v>
       </c>
       <c r="AJ10" t="n">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AK10" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AL10" t="n">
-        <v>61.95652173913</v>
+        <v>62.244897959184</v>
       </c>
       <c r="AM10" t="n">
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>10</v>
+        <v>9.090909090909101</v>
       </c>
       <c r="AO10" t="n">
         <v>24</v>
       </c>
       <c r="AP10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ10" t="n">
         <v>16</v>
       </c>
       <c r="AR10" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AS10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT10" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AU10" t="n">
         <v>4</v>
@@ -4024,34 +4024,34 @@
         <v>6</v>
       </c>
       <c r="AZ10" t="n">
-        <v>46.153846153846</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BA10" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="BB10" t="n">
-        <v>47.014925373134</v>
+        <v>46.428571428571</v>
       </c>
       <c r="BC10" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="BD10" t="n">
-        <v>43.157894736842</v>
+        <v>43</v>
       </c>
       <c r="BE10" t="n">
         <v>22</v>
       </c>
       <c r="BF10" t="n">
-        <v>56.410256410256</v>
+        <v>55</v>
       </c>
       <c r="BG10" t="n">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="BH10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BI10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ10" t="n">
         <v>1</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="BN10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO10" t="n">
         <v>26</v>
@@ -4075,16 +4075,16 @@
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>145.4</v>
+        <v>152.6</v>
       </c>
       <c r="BR10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS10" t="n">
         <v>1</v>
       </c>
       <c r="BT10" t="n">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>11</v>
       </c>
       <c r="CC10" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="CD10" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="CE10" t="n">
         <v>0</v>
@@ -4156,19 +4156,19 @@
         <v>0</v>
       </c>
       <c r="CR10" t="n">
+        <v>14</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>14</v>
+      </c>
+      <c r="CT10" t="n">
         <v>11</v>
       </c>
-      <c r="CS10" t="n">
-        <v>13</v>
-      </c>
-      <c r="CT10" t="n">
-        <v>10</v>
-      </c>
       <c r="CU10" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="CV10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CW10" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="DA10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="DB10" t="n">
-        <v>62.962962962963</v>
+        <v>64.28571428571399</v>
       </c>
       <c r="DC10" t="n">
         <v>0</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>597</v>
+        <v>631</v>
       </c>
       <c r="DG10" t="n">
-        <v>620</v>
+        <v>658</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4239,16 +4239,16 @@
         <v>916946</v>
       </c>
       <c r="E11" t="n">
-        <v>7.1</v>
+        <v>7.1368421052632</v>
       </c>
       <c r="F11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" t="n">
-        <v>1461</v>
+        <v>1551</v>
       </c>
       <c r="I11" t="n">
         <v>3</v>
@@ -4257,22 +4257,22 @@
         <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.2217</v>
+        <v>2.6122</v>
       </c>
       <c r="L11" t="n">
-        <v>365.25</v>
+        <v>387.75</v>
       </c>
       <c r="M11" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
         <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>21.052631578947</v>
+        <v>16.666666666667</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -4305,67 +4305,67 @@
         <v>5</v>
       </c>
       <c r="AA11" t="n">
-        <v>3.2901137</v>
+        <v>3.5518647</v>
       </c>
       <c r="AB11" t="n">
-        <v>1072</v>
+        <v>1145</v>
       </c>
       <c r="AC11" t="n">
         <v>9</v>
       </c>
       <c r="AD11" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AE11" t="n">
-        <v>604</v>
+        <v>638</v>
       </c>
       <c r="AF11" t="n">
-        <v>76.262626262626</v>
+        <v>76.224611708483</v>
       </c>
       <c r="AG11" t="n">
-        <v>792</v>
+        <v>837</v>
       </c>
       <c r="AH11" t="n">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="AI11" t="n">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="AJ11" t="n">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="AK11" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AL11" t="n">
-        <v>39.784946236559</v>
+        <v>39.175257731959</v>
       </c>
       <c r="AM11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN11" t="n">
-        <v>27.906976744186</v>
+        <v>26.530612244898</v>
       </c>
       <c r="AO11" t="n">
         <v>12</v>
       </c>
       <c r="AP11" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AQ11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR11" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AS11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT11" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AU11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV11" t="n">
         <v>0</v>
@@ -4383,28 +4383,28 @@
         <v>42.857142857143</v>
       </c>
       <c r="BA11" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="BB11" t="n">
-        <v>46.428571428571</v>
+        <v>47.846889952153</v>
       </c>
       <c r="BC11" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="BD11" t="n">
-        <v>40.350877192982</v>
+        <v>42.622950819672</v>
       </c>
       <c r="BE11" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="BF11" t="n">
-        <v>54.878048780488</v>
+        <v>55.172413793103</v>
       </c>
       <c r="BG11" t="n">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="BH11" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BI11" t="n">
         <v>7</v>
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="BN11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO11" t="n">
         <v>16</v>
@@ -4431,22 +4431,22 @@
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>127.8</v>
+        <v>135.6</v>
       </c>
       <c r="BR11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS11" t="n">
         <v>9</v>
       </c>
       <c r="BT11" t="n">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="BU11" t="n">
         <v>1</v>
       </c>
       <c r="BV11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BW11" t="n">
         <v>0</v>
@@ -4458,16 +4458,16 @@
         <v>1</v>
       </c>
       <c r="BZ11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CA11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CB11" t="n">
         <v>16</v>
       </c>
       <c r="CC11" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="CD11" t="n">
         <v>33</v>
@@ -4512,19 +4512,19 @@
         <v>100</v>
       </c>
       <c r="CR11" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="CS11" t="n">
         <v>7</v>
       </c>
       <c r="CT11" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="CU11" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="CV11" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="CW11" t="n">
         <v>0</v>
@@ -4536,13 +4536,13 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="DA11" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="DB11" t="n">
-        <v>72.222222222222</v>
+        <v>73.80952380952399</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="DG11" t="n">
-        <v>499</v>
+        <v>526</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4595,16 +4595,16 @@
         <v>978062</v>
       </c>
       <c r="E12" t="n">
-        <v>6.7833333333333</v>
+        <v>6.7947368421053</v>
       </c>
       <c r="F12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
         <v>8</v>
       </c>
       <c r="H12" t="n">
-        <v>800</v>
+        <v>817</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -4613,13 +4613,13 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5683</v>
+        <v>0.6135</v>
       </c>
       <c r="L12" t="n">
-        <v>800</v>
+        <v>817</v>
       </c>
       <c r="M12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N12" t="n">
         <v>5</v>
@@ -4628,7 +4628,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>11.111111111111</v>
+        <v>10</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -4658,37 +4658,37 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.73206977</v>
+        <v>1.78967927</v>
       </c>
       <c r="AB12" t="n">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="AC12" t="n">
         <v>4</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="AF12" t="n">
-        <v>78.405315614618</v>
+        <v>78.913738019169</v>
       </c>
       <c r="AG12" t="n">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="AH12" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AI12" t="n">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AJ12" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AK12" t="n">
         <v>10</v>
@@ -4715,7 +4715,7 @@
         <v>45</v>
       </c>
       <c r="AS12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AT12" t="n">
         <v>11</v>
@@ -4733,22 +4733,22 @@
         <v>0</v>
       </c>
       <c r="AY12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ12" t="n">
-        <v>38.461538461538</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BA12" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BB12" t="n">
-        <v>46.428571428571</v>
+        <v>45.689655172414</v>
       </c>
       <c r="BC12" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BD12" t="n">
-        <v>42.268041237113</v>
+        <v>41.584158415842</v>
       </c>
       <c r="BE12" t="n">
         <v>11</v>
@@ -4757,7 +4757,7 @@
         <v>73.333333333333</v>
       </c>
       <c r="BG12" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BH12" t="n">
         <v>17</v>
@@ -4787,22 +4787,22 @@
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>122.1</v>
+        <v>129.1</v>
       </c>
       <c r="BR12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BT12" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BW12" t="n">
         <v>0</v>
@@ -4814,19 +4814,19 @@
         <v>2</v>
       </c>
       <c r="BZ12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CA12" t="n">
         <v>5</v>
       </c>
       <c r="CB12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CC12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CD12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CE12" t="n">
         <v>0</v>
@@ -4868,16 +4868,16 @@
         <v>0</v>
       </c>
       <c r="CR12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CS12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CT12" t="n">
         <v>15</v>
       </c>
       <c r="CU12" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="CV12" t="n">
         <v>4</v>
@@ -4910,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="DG12" t="n">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -5307,16 +5307,16 @@
         <v>253993</v>
       </c>
       <c r="E14" t="n">
-        <v>6.9952380952381</v>
+        <v>6.9863636363636</v>
       </c>
       <c r="F14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H14" t="n">
-        <v>1076</v>
+        <v>1166</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -5325,13 +5325,13 @@
         <v>6</v>
       </c>
       <c r="K14" t="n">
-        <v>3.2346</v>
+        <v>3.2934</v>
       </c>
       <c r="L14" t="n">
-        <v>179.33333333333</v>
+        <v>194.33333333333</v>
       </c>
       <c r="M14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N14" t="n">
         <v>8</v>
@@ -5340,7 +5340,7 @@
         <v>4</v>
       </c>
       <c r="P14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -5373,40 +5373,40 @@
         <v>2</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.59891425</v>
+        <v>1.65228285</v>
       </c>
       <c r="AB14" t="n">
-        <v>800</v>
+        <v>863</v>
       </c>
       <c r="AC14" t="n">
         <v>1</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
-        <v>485</v>
+        <v>522</v>
       </c>
       <c r="AF14" t="n">
-        <v>82.623509369676</v>
+        <v>82.988871224165</v>
       </c>
       <c r="AG14" t="n">
-        <v>587</v>
+        <v>629</v>
       </c>
       <c r="AH14" t="n">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="AI14" t="n">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="AJ14" t="n">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AK14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL14" t="n">
-        <v>39.024390243902</v>
+        <v>38.636363636364</v>
       </c>
       <c r="AM14" t="n">
         <v>2</v>
@@ -5415,22 +5415,22 @@
         <v>28.571428571429</v>
       </c>
       <c r="AO14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ14" t="n">
         <v>8</v>
       </c>
       <c r="AR14" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT14" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AU14" t="n">
         <v>6</v>
@@ -5451,37 +5451,37 @@
         <v>41.666666666667</v>
       </c>
       <c r="BA14" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="BB14" t="n">
-        <v>53.846153846154</v>
+        <v>54.032258064516</v>
       </c>
       <c r="BC14" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="BD14" t="n">
-        <v>59.493670886076</v>
+        <v>60</v>
       </c>
       <c r="BE14" t="n">
         <v>16</v>
       </c>
       <c r="BF14" t="n">
-        <v>42.105263157895</v>
+        <v>41.025641025641</v>
       </c>
       <c r="BG14" t="n">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="BH14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BI14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BJ14" t="n">
         <v>0</v>
       </c>
       <c r="BK14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL14" t="n">
         <v>0</v>
@@ -5490,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="BN14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO14" t="n">
         <v>16</v>
@@ -5499,22 +5499,22 @@
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>146.9</v>
+        <v>153.7</v>
       </c>
       <c r="BR14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS14" t="n">
         <v>8</v>
       </c>
       <c r="BT14" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BW14" t="n">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="BZ14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CA14" t="n">
         <v>7</v>
@@ -5535,10 +5535,10 @@
         <v>8</v>
       </c>
       <c r="CC14" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="CD14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CE14" t="n">
         <v>0</v>
@@ -5580,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="CR14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CS14" t="n">
         <v>12</v>
@@ -5589,10 +5589,10 @@
         <v>7</v>
       </c>
       <c r="CU14" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="CV14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CW14" t="n">
         <v>0</v>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="DA14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="DB14" t="n">
         <v>50</v>
@@ -5622,16 +5622,16 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="DG14" t="n">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
       </c>
       <c r="DI14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DJ14" t="n">
         <v>2163174</v>
@@ -6017,58 +6017,58 @@
         <v>857740</v>
       </c>
       <c r="E16" t="n">
-        <v>6.8666666666667</v>
+        <v>7.0076923076923</v>
       </c>
       <c r="F16" t="n">
+        <v>13</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>683</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.8479</v>
+      </c>
+      <c r="L16" t="n">
+        <v>227.66666666667</v>
+      </c>
+      <c r="M16" t="n">
         <v>12</v>
       </c>
-      <c r="G16" t="n">
-        <v>5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>593</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="N16" t="n">
+        <v>4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3</v>
+      </c>
+      <c r="P16" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
         <v>2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1.6676</v>
-      </c>
-      <c r="L16" t="n">
-        <v>296.5</v>
-      </c>
-      <c r="M16" t="n">
-        <v>9</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2</v>
-      </c>
-      <c r="P16" t="n">
-        <v>22.222222222222</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -6083,40 +6083,40 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.08522017</v>
+        <v>0.14163957</v>
       </c>
       <c r="AB16" t="n">
-        <v>477</v>
+        <v>560</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
-        <v>313</v>
+        <v>371</v>
       </c>
       <c r="AF16" t="n">
-        <v>85.054347826087</v>
+        <v>85.68129330254</v>
       </c>
       <c r="AG16" t="n">
-        <v>368</v>
+        <v>433</v>
       </c>
       <c r="AH16" t="n">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="AI16" t="n">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="AJ16" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AK16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL16" t="n">
-        <v>39.393939393939</v>
+        <v>40.540540540541</v>
       </c>
       <c r="AM16" t="n">
         <v>0</v>
@@ -6125,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AP16" t="n">
         <v>9</v>
@@ -6134,16 +6134,16 @@
         <v>1</v>
       </c>
       <c r="AR16" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AS16" t="n">
         <v>2</v>
       </c>
       <c r="AT16" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="AU16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV16" t="n">
         <v>0</v>
@@ -6161,28 +6161,28 @@
         <v>66.666666666667</v>
       </c>
       <c r="BA16" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="BB16" t="n">
-        <v>56.470588235294</v>
+        <v>58.163265306122</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
       </c>
       <c r="BD16" t="n">
-        <v>53.571428571429</v>
+        <v>51.724137931034</v>
       </c>
       <c r="BE16" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="BF16" t="n">
-        <v>57.894736842105</v>
+        <v>60.869565217391</v>
       </c>
       <c r="BG16" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="BH16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BI16" t="n">
         <v>4</v>
@@ -6191,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="BK16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL16" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>0</v>
       </c>
       <c r="BN16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO16" t="n">
         <v>10</v>
@@ -6209,16 +6209,16 @@
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>82.40000000000001</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="BR16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BS16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BT16" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
@@ -6236,19 +6236,19 @@
         <v>0</v>
       </c>
       <c r="BZ16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CA16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB16" t="n">
         <v>1</v>
       </c>
       <c r="CC16" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="CD16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CE16" t="n">
         <v>0</v>
@@ -6290,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="CR16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS16" t="n">
         <v>3</v>
@@ -6299,22 +6299,22 @@
         <v>1</v>
       </c>
       <c r="CU16" t="n">
+        <v>41</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>27</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ16" t="n">
         <v>37</v>
-      </c>
-      <c r="CV16" t="n">
-        <v>24</v>
-      </c>
-      <c r="CW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ16" t="n">
-        <v>33</v>
       </c>
       <c r="DA16" t="n">
         <v>7</v>
@@ -6332,16 +6332,16 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="DG16" t="n">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="DH16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="DI16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DJ16" t="n">
         <v>2378630</v>
@@ -6373,16 +6373,16 @@
         <v>138024</v>
       </c>
       <c r="E17" t="n">
-        <v>7.0142857142857</v>
+        <v>7.1090909090909</v>
       </c>
       <c r="F17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H17" t="n">
-        <v>1878</v>
+        <v>1967</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -6391,13 +6391,13 @@
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5151</v>
+        <v>0.5552</v>
       </c>
       <c r="L17" t="n">
-        <v>1878</v>
+        <v>1967</v>
       </c>
       <c r="M17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N17" t="n">
         <v>4</v>
@@ -6406,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>7.1428571428571</v>
+        <v>6.25</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -6436,70 +6436,70 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA17" t="n">
-        <v>4.3126751</v>
+        <v>4.9595861</v>
       </c>
       <c r="AB17" t="n">
-        <v>1459</v>
+        <v>1549</v>
       </c>
       <c r="AC17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AE17" t="n">
-        <v>635</v>
+        <v>681</v>
       </c>
       <c r="AF17" t="n">
-        <v>77.723378212974</v>
+        <v>78.36593785960901</v>
       </c>
       <c r="AG17" t="n">
-        <v>817</v>
+        <v>869</v>
       </c>
       <c r="AH17" t="n">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="AI17" t="n">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="AJ17" t="n">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="AK17" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AL17" t="n">
-        <v>39.130434782609</v>
+        <v>42.857142857143</v>
       </c>
       <c r="AM17" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AN17" t="n">
-        <v>27.450980392157</v>
+        <v>28.828828828829</v>
       </c>
       <c r="AO17" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP17" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AQ17" t="n">
         <v>8</v>
       </c>
       <c r="AR17" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AS17" t="n">
         <v>18</v>
       </c>
       <c r="AT17" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="AU17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV17" t="n">
         <v>1</v>
@@ -6511,37 +6511,37 @@
         <v>1</v>
       </c>
       <c r="AY17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ17" t="n">
-        <v>52.941176470588</v>
+        <v>54.054054054054</v>
       </c>
       <c r="BA17" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="BB17" t="n">
-        <v>56.741573033708</v>
+        <v>57.297297297297</v>
       </c>
       <c r="BC17" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="BD17" t="n">
-        <v>53.900709219858</v>
+        <v>55.102040816327</v>
       </c>
       <c r="BE17" t="n">
         <v>25</v>
       </c>
       <c r="BF17" t="n">
-        <v>67.56756756756801</v>
+        <v>65.789473684211</v>
       </c>
       <c r="BG17" t="n">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="BH17" t="n">
         <v>20</v>
       </c>
       <c r="BI17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BJ17" t="n">
         <v>0</v>
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="BN17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO17" t="n">
         <v>27</v>
@@ -6565,16 +6565,16 @@
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>147.3</v>
+        <v>156.4</v>
       </c>
       <c r="BR17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BT17" t="n">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
@@ -6592,16 +6592,16 @@
         <v>3</v>
       </c>
       <c r="BZ17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CA17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CB17" t="n">
         <v>11</v>
       </c>
       <c r="CC17" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="CD17" t="n">
         <v>29</v>
@@ -6646,19 +6646,19 @@
         <v>33.333333333333</v>
       </c>
       <c r="CR17" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="CS17" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="CT17" t="n">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="CU17" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="CV17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CW17" t="n">
         <v>0</v>
@@ -6670,13 +6670,13 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="DA17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DB17" t="n">
-        <v>63.888888888889</v>
+        <v>64.864864864865</v>
       </c>
       <c r="DC17" t="n">
         <v>0</v>
@@ -6688,10 +6688,10 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="DG17" t="n">
-        <v>479</v>
+        <v>515</v>
       </c>
       <c r="DH17" t="n">
         <v>0</v>
@@ -7083,16 +7083,16 @@
         <v>1000269</v>
       </c>
       <c r="E19" t="n">
-        <v>6.9666666666667</v>
+        <v>6.9736842105263</v>
       </c>
       <c r="F19" t="n">
+        <v>19</v>
+      </c>
+      <c r="G19" t="n">
         <v>18</v>
       </c>
-      <c r="G19" t="n">
-        <v>17</v>
-      </c>
       <c r="H19" t="n">
-        <v>1469</v>
+        <v>1559</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -7101,13 +7101,13 @@
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>1.4358</v>
+        <v>1.4441</v>
       </c>
       <c r="L19" t="n">
-        <v>1469</v>
+        <v>1559</v>
       </c>
       <c r="M19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N19" t="n">
         <v>3</v>
@@ -7116,7 +7116,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>10</v>
+        <v>9.090909090909101</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -7149,10 +7149,10 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.4193286</v>
+        <v>0.4486894</v>
       </c>
       <c r="AB19" t="n">
-        <v>1237</v>
+        <v>1316</v>
       </c>
       <c r="AC19" t="n">
         <v>2</v>
@@ -7161,28 +7161,28 @@
         <v>3</v>
       </c>
       <c r="AE19" t="n">
-        <v>762</v>
+        <v>799</v>
       </c>
       <c r="AF19" t="n">
-        <v>82.556879739978</v>
+        <v>81.864754098361</v>
       </c>
       <c r="AG19" t="n">
-        <v>923</v>
+        <v>976</v>
       </c>
       <c r="AH19" t="n">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="AI19" t="n">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="AJ19" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AK19" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AL19" t="n">
-        <v>39.622641509434</v>
+        <v>38.728323699422</v>
       </c>
       <c r="AM19" t="n">
         <v>0</v>
@@ -7191,25 +7191,25 @@
         <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP19" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AQ19" t="n">
         <v>1</v>
       </c>
       <c r="AR19" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="AS19" t="n">
         <v>13</v>
       </c>
       <c r="AT19" t="n">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AU19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV19" t="n">
         <v>2</v>
@@ -7227,25 +7227,25 @@
         <v>66.666666666667</v>
       </c>
       <c r="BA19" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="BB19" t="n">
-        <v>54.696132596685</v>
+        <v>54.891304347826</v>
       </c>
       <c r="BC19" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BD19" t="n">
-        <v>55.769230769231</v>
+        <v>56.603773584906</v>
       </c>
       <c r="BE19" t="n">
         <v>41</v>
       </c>
       <c r="BF19" t="n">
-        <v>53.246753246753</v>
+        <v>52.564102564103</v>
       </c>
       <c r="BG19" t="n">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="BH19" t="n">
         <v>29</v>
@@ -7266,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="BN19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO19" t="n">
         <v>21</v>
@@ -7275,16 +7275,16 @@
         <v>0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>125.4</v>
+        <v>132.5</v>
       </c>
       <c r="BR19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS19" t="n">
         <v>1</v>
       </c>
       <c r="BT19" t="n">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="BU19" t="n">
         <v>0</v>
@@ -7305,16 +7305,16 @@
         <v>8</v>
       </c>
       <c r="CA19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CB19" t="n">
         <v>6</v>
       </c>
       <c r="CC19" t="n">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="CD19" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="CE19" t="n">
         <v>0</v>
@@ -7362,13 +7362,13 @@
         <v>3</v>
       </c>
       <c r="CT19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CU19" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="CV19" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CW19" t="n">
         <v>0</v>
@@ -7380,13 +7380,13 @@
         <v>0</v>
       </c>
       <c r="CZ19" t="n">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="DA19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="DB19" t="n">
-        <v>67.56756756756801</v>
+        <v>66.666666666667</v>
       </c>
       <c r="DC19" t="n">
         <v>0</v>
@@ -7398,10 +7398,10 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="DG19" t="n">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="DH19" t="n">
         <v>21</v>
@@ -8149,16 +8149,16 @@
         <v>957615</v>
       </c>
       <c r="E22" t="n">
-        <v>6.7526315789474</v>
+        <v>6.78</v>
       </c>
       <c r="F22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>1677</v>
+        <v>1767</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -8167,19 +8167,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8474</v>
+        <v>1.1136</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" t="n">
         <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -8209,16 +8209,16 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.31553042</v>
+        <v>0.33727732</v>
       </c>
       <c r="AB22" t="n">
-        <v>1154</v>
+        <v>1227</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -8227,52 +8227,52 @@
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>789</v>
+        <v>843</v>
       </c>
       <c r="AF22" t="n">
-        <v>87.18232044198901</v>
+        <v>87.448132780083</v>
       </c>
       <c r="AG22" t="n">
-        <v>905</v>
+        <v>964</v>
       </c>
       <c r="AH22" t="n">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="AI22" t="n">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="AJ22" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AK22" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL22" t="n">
-        <v>44.68085106383</v>
+        <v>44.329896907216</v>
       </c>
       <c r="AM22" t="n">
         <v>1</v>
       </c>
       <c r="AN22" t="n">
-        <v>33.333333333333</v>
+        <v>25</v>
       </c>
       <c r="AO22" t="n">
         <v>12</v>
       </c>
       <c r="AP22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AS22" t="n">
         <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AU22" t="n">
         <v>1</v>
@@ -8293,28 +8293,28 @@
         <v>100</v>
       </c>
       <c r="BA22" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="BB22" t="n">
-        <v>55.704697986577</v>
+        <v>55.769230769231</v>
       </c>
       <c r="BC22" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BD22" t="n">
-        <v>57.692307692308</v>
+        <v>56.363636363636</v>
       </c>
       <c r="BE22" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="BF22" t="n">
-        <v>54.639175257732</v>
+        <v>55.445544554455</v>
       </c>
       <c r="BG22" t="n">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="BH22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BI22" t="n">
         <v>8</v>
@@ -8332,7 +8332,7 @@
         <v>0</v>
       </c>
       <c r="BN22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO22" t="n">
         <v>22</v>
@@ -8341,46 +8341,46 @@
         <v>0</v>
       </c>
       <c r="BQ22" t="n">
-        <v>128.3</v>
+        <v>135.6</v>
       </c>
       <c r="BR22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS22" t="n">
         <v>0</v>
       </c>
       <c r="BT22" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="BU22" t="n">
         <v>0</v>
       </c>
       <c r="BV22" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>5</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB22" t="n">
         <v>2</v>
       </c>
-      <c r="BW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>4</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>1</v>
-      </c>
       <c r="CC22" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="CD22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CE22" t="n">
         <v>0</v>
@@ -8428,13 +8428,13 @@
         <v>2</v>
       </c>
       <c r="CT22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CU22" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="CV22" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="CW22" t="n">
         <v>0</v>
@@ -8446,13 +8446,13 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="DA22" t="n">
         <v>13</v>
       </c>
       <c r="DB22" t="n">
-        <v>65</v>
+        <v>61.904761904762</v>
       </c>
       <c r="DC22" t="n">
         <v>0</v>
@@ -8464,16 +8464,16 @@
         <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>608</v>
+        <v>642</v>
       </c>
       <c r="DG22" t="n">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="DH22" t="n">
         <v>14</v>
       </c>
       <c r="DI22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="DJ22" t="n">
         <v>2163189</v>
@@ -8505,38 +8505,40 @@
         <v>944899</v>
       </c>
       <c r="E23" t="n">
-        <v>6.675</v>
+        <v>6.86</v>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.1186</v>
+      </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -8551,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -8560,7 +8562,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -8569,34 +8571,34 @@
         <v>1</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.5543527</v>
+        <v>0.56286112</v>
       </c>
       <c r="AB23" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AC23" t="n">
         <v>1</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF23" t="n">
-        <v>95.652173913043</v>
+        <v>96</v>
       </c>
       <c r="AG23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
         <v>11</v>
       </c>
       <c r="AI23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK23" t="n">
         <v>1</v>
@@ -8608,7 +8610,7 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AO23" t="n">
         <v>1</v>
@@ -8665,7 +8667,7 @@
         <v>50</v>
       </c>
       <c r="BG23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH23" t="n">
         <v>2</v>
@@ -8695,13 +8697,13 @@
         <v>0</v>
       </c>
       <c r="BQ23" t="n">
-        <v>26.7</v>
+        <v>34.3</v>
       </c>
       <c r="BR23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BS23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT23" t="n">
         <v>1</v>
@@ -8725,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="CA23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB23" t="n">
         <v>1</v>
@@ -8776,13 +8778,13 @@
         <v>0</v>
       </c>
       <c r="CR23" t="n">
+        <v>3</v>
+      </c>
+      <c r="CS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT23" t="n">
         <v>2</v>
-      </c>
-      <c r="CS23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT23" t="n">
-        <v>1</v>
       </c>
       <c r="CU23" t="n">
         <v>7</v>
@@ -8821,7 +8823,7 @@
         <v>11</v>
       </c>
       <c r="DG23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="DH23" t="n">
         <v>0</v>
@@ -8859,16 +8861,16 @@
         <v>40244</v>
       </c>
       <c r="E24" t="n">
-        <v>6.9666666666667</v>
+        <v>6.9954545454545</v>
       </c>
       <c r="F24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H24" t="n">
-        <v>1890</v>
+        <v>1980</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -8923,10 +8925,10 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.13210552</v>
+        <v>0.13990154</v>
       </c>
       <c r="AB24" t="n">
-        <v>997</v>
+        <v>1042</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -8935,28 +8937,28 @@
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>565</v>
+        <v>592</v>
       </c>
       <c r="AF24" t="n">
-        <v>69.839307787392</v>
+        <v>70.22538552787699</v>
       </c>
       <c r="AG24" t="n">
-        <v>809</v>
+        <v>843</v>
       </c>
       <c r="AH24" t="n">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="AI24" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AJ24" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AK24" t="n">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="AL24" t="n">
-        <v>36.649214659686</v>
+        <v>37.121212121212</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
@@ -8974,13 +8976,13 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="AS24" t="n">
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -8995,22 +8997,22 @@
         <v>0</v>
       </c>
       <c r="AY24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ24" t="n">
         <v>100</v>
       </c>
       <c r="BA24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB24" t="n">
-        <v>84.615384615385</v>
+        <v>85.71428571428601</v>
       </c>
       <c r="BC24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD24" t="n">
-        <v>71.428571428571</v>
+        <v>75</v>
       </c>
       <c r="BE24" t="n">
         <v>6</v>
@@ -9019,7 +9021,7 @@
         <v>100</v>
       </c>
       <c r="BG24" t="n">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="BH24" t="n">
         <v>0</v>
@@ -9037,10 +9039,10 @@
         <v>0</v>
       </c>
       <c r="BM24" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="BN24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO24" t="n">
         <v>28</v>
@@ -9049,16 +9051,16 @@
         <v>0</v>
       </c>
       <c r="BQ24" t="n">
-        <v>146.3</v>
+        <v>153.9</v>
       </c>
       <c r="BR24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS24" t="n">
         <v>0</v>
       </c>
       <c r="BT24" t="n">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="BU24" t="n">
         <v>0</v>
@@ -9085,10 +9087,10 @@
         <v>0</v>
       </c>
       <c r="CC24" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="CD24" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="CE24" t="n">
         <v>0</v>
@@ -9100,10 +9102,10 @@
         <v>5</v>
       </c>
       <c r="CH24" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="CI24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CJ24" t="n">
         <v>26</v>
@@ -9112,7 +9114,7 @@
         <v>2</v>
       </c>
       <c r="CL24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CM24" t="n">
         <v>23</v>
@@ -9133,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="CS24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CT24" t="n">
         <v>0</v>
@@ -9154,7 +9156,7 @@
         <v>0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="DA24" t="n">
         <v>0</v>
@@ -9172,13 +9174,13 @@
         <v>14</v>
       </c>
       <c r="DF24" t="n">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="DG24" t="n">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="DH24" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="DI24" t="n">
         <v>0</v>
@@ -9192,7 +9194,7 @@
         </is>
       </c>
       <c r="DL24" t="n">
-        <v>2.8998</v>
+        <v>3.2694</v>
       </c>
     </row>
   </sheetData>

--- a/sofaplayer/Bundesliga/TSG Hoffenheim_stats.xlsx
+++ b/sofaplayer/Bundesliga/TSG Hoffenheim_stats.xlsx
@@ -1053,7 +1053,7 @@
         <v>9</v>
       </c>
       <c r="K2" t="n">
-        <v>7.2114</v>
+        <v>7.2278</v>
       </c>
       <c r="L2" t="n">
         <v>149.66666666667</v>
@@ -1101,10 +1101,10 @@
         <v>4</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.10759235</v>
+        <v>3.10766635</v>
       </c>
       <c r="AB2" t="n">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="AC2" t="n">
         <v>5</v>
@@ -1113,16 +1113,16 @@
         <v>24</v>
       </c>
       <c r="AE2" t="n">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AF2" t="n">
-        <v>85.333333333333</v>
+        <v>85.35773710482501</v>
       </c>
       <c r="AG2" t="n">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AH2" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AI2" t="n">
         <v>319</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="DG2" t="n">
         <v>386</v>
@@ -1409,7 +1409,7 @@
         <v>7</v>
       </c>
       <c r="K3" t="n">
-        <v>5.6891</v>
+        <v>5.6611</v>
       </c>
       <c r="L3" t="n">
         <v>204.71428571429</v>
@@ -1457,10 +1457,10 @@
         <v>4</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.69591183</v>
+        <v>2.69449557</v>
       </c>
       <c r="AB3" t="n">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="AC3" t="n">
         <v>6</v>
@@ -1469,10 +1469,10 @@
         <v>24</v>
       </c>
       <c r="AE3" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF3" t="n">
-        <v>68.702290076336</v>
+        <v>68.447837150127</v>
       </c>
       <c r="AG3" t="n">
         <v>393</v>
@@ -1481,10 +1481,10 @@
         <v>91</v>
       </c>
       <c r="AI3" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AJ3" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK3" t="n">
         <v>5</v>
@@ -1514,7 +1514,7 @@
         <v>15</v>
       </c>
       <c r="AT3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -1553,7 +1553,7 @@
         <v>28.787878787879</v>
       </c>
       <c r="BG3" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="BH3" t="n">
         <v>14</v>
@@ -1592,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="BT3" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5526</v>
+        <v>0.5374</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4372</v>
+        <v>2.4021</v>
       </c>
       <c r="L8" t="n">
         <v>676</v>
@@ -3237,7 +3237,7 @@
         <v>5</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.4465987</v>
+        <v>2.4465997</v>
       </c>
       <c r="AB8" t="n">
         <v>741</v>
@@ -3399,7 +3399,7 @@
         <v>25</v>
       </c>
       <c r="CC8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="CD8" t="n">
         <v>7</v>
@@ -3949,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.21802524</v>
+        <v>1.21802624</v>
       </c>
       <c r="AB10" t="n">
         <v>1543</v>
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.6122</v>
+        <v>2.6025</v>
       </c>
       <c r="L11" t="n">
         <v>387.75</v>
@@ -4305,10 +4305,10 @@
         <v>5</v>
       </c>
       <c r="AA11" t="n">
-        <v>3.5518647</v>
+        <v>3.4865977</v>
       </c>
       <c r="AB11" t="n">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="AC11" t="n">
         <v>9</v>
@@ -4350,7 +4350,7 @@
         <v>12</v>
       </c>
       <c r="AP11" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AQ11" t="n">
         <v>13</v>
@@ -4383,16 +4383,16 @@
         <v>42.857142857143</v>
       </c>
       <c r="BA11" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BB11" t="n">
-        <v>47.846889952153</v>
+        <v>48.095238095238</v>
       </c>
       <c r="BC11" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BD11" t="n">
-        <v>42.622950819672</v>
+        <v>43.089430894309</v>
       </c>
       <c r="BE11" t="n">
         <v>48</v>
@@ -4542,7 +4542,7 @@
         <v>31</v>
       </c>
       <c r="DB11" t="n">
-        <v>73.80952380952399</v>
+        <v>72.093023255814</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
@@ -4661,10 +4661,10 @@
         <v>2</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.78967927</v>
+        <v>1.78960437</v>
       </c>
       <c r="AB12" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AC12" t="n">
         <v>4</v>
@@ -4673,16 +4673,16 @@
         <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF12" t="n">
-        <v>78.913738019169</v>
+        <v>78.846153846154</v>
       </c>
       <c r="AG12" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AH12" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI12" t="n">
         <v>163</v>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="DG12" t="n">
         <v>221</v>
@@ -5307,7 +5307,7 @@
         <v>253993</v>
       </c>
       <c r="E14" t="n">
-        <v>6.9863636363636</v>
+        <v>6.9909090909091</v>
       </c>
       <c r="F14" t="n">
         <v>22</v>
@@ -5373,7 +5373,7 @@
         <v>2</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.65228285</v>
+        <v>1.65690305</v>
       </c>
       <c r="AB14" t="n">
         <v>863</v>
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>153.7</v>
+        <v>153.8</v>
       </c>
       <c r="BR14" t="n">
         <v>22</v>
@@ -6017,7 +6017,7 @@
         <v>857740</v>
       </c>
       <c r="E16" t="n">
-        <v>7.0076923076923</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
         <v>13</v>
@@ -6029,13 +6029,13 @@
         <v>683</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
         <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>1.8479</v>
+        <v>1.8408</v>
       </c>
       <c r="L16" t="n">
         <v>227.66666666667</v>
@@ -6083,10 +6083,10 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.14163957</v>
+        <v>0.15183147</v>
       </c>
       <c r="AB16" t="n">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -6098,10 +6098,10 @@
         <v>371</v>
       </c>
       <c r="AF16" t="n">
-        <v>85.68129330254</v>
+        <v>85.48387096774201</v>
       </c>
       <c r="AG16" t="n">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AH16" t="n">
         <v>244</v>
@@ -6140,7 +6140,7 @@
         <v>2</v>
       </c>
       <c r="AT16" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU16" t="n">
         <v>2</v>
@@ -6164,7 +6164,7 @@
         <v>57</v>
       </c>
       <c r="BB16" t="n">
-        <v>58.163265306122</v>
+        <v>57.575757575758</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
@@ -6176,10 +6176,10 @@
         <v>42</v>
       </c>
       <c r="BF16" t="n">
-        <v>60.869565217391</v>
+        <v>60</v>
       </c>
       <c r="BG16" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BH16" t="n">
         <v>11</v>
@@ -6209,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>91.09999999999999</v>
+        <v>91</v>
       </c>
       <c r="BR16" t="n">
         <v>13</v>
@@ -6218,7 +6218,7 @@
         <v>3</v>
       </c>
       <c r="BT16" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
@@ -6299,10 +6299,10 @@
         <v>1</v>
       </c>
       <c r="CU16" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="CV16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CW16" t="n">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="DG16" t="n">
         <v>176</v>
@@ -6341,7 +6341,7 @@
         <v>9</v>
       </c>
       <c r="DI16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DJ16" t="n">
         <v>2378630</v>
@@ -6385,13 +6385,13 @@
         <v>1967</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5552</v>
+        <v>0.5813</v>
       </c>
       <c r="L17" t="n">
         <v>1967</v>
@@ -6439,7 +6439,7 @@
         <v>6</v>
       </c>
       <c r="AA17" t="n">
-        <v>4.9595861</v>
+        <v>4.9744501</v>
       </c>
       <c r="AB17" t="n">
         <v>1549</v>
@@ -6451,22 +6451,22 @@
         <v>31</v>
       </c>
       <c r="AE17" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AF17" t="n">
-        <v>78.36593785960901</v>
+        <v>78.481012658228</v>
       </c>
       <c r="AG17" t="n">
         <v>869</v>
       </c>
       <c r="AH17" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AI17" t="n">
         <v>379</v>
       </c>
       <c r="AJ17" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AK17" t="n">
         <v>42</v>
@@ -6535,7 +6535,7 @@
         <v>65.789473684211</v>
       </c>
       <c r="BG17" t="n">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="BH17" t="n">
         <v>20</v>
@@ -6574,7 +6574,7 @@
         <v>7</v>
       </c>
       <c r="BT17" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
@@ -6688,10 +6688,10 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="DG17" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="DH17" t="n">
         <v>0</v>
@@ -7101,7 +7101,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>1.4441</v>
+        <v>1.4515</v>
       </c>
       <c r="L19" t="n">
         <v>1559</v>
@@ -7149,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.4486894</v>
+        <v>0.4486896</v>
       </c>
       <c r="AB19" t="n">
         <v>1316</v>
@@ -8142,299 +8142,299 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Robin Hranáč</t>
+          <t>Valentin Gendrey</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>957615</v>
+        <v>944899</v>
       </c>
       <c r="E22" t="n">
-        <v>6.78</v>
+        <v>6.88</v>
       </c>
       <c r="F22" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G22" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1767</v>
+        <v>57</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>1.1136</v>
+        <v>0.0916</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.56286112</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>96</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>30</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>25</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>50</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="BR22" t="n">
         <v>5</v>
       </c>
-      <c r="N22" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="BS22" t="n">
         <v>2</v>
       </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0.33727732</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>1227</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>843</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>87.448132780083</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>964</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>600</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>243</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>43</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>44.329896907216</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ22" t="n">
+      <c r="BT22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>3</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT22" t="n">
         <v>2</v>
       </c>
-      <c r="AR22" t="n">
-        <v>62</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>4</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>129</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>87</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>55.769230769231</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>31</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>56.363636363636</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>56</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>55.445544554455</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>138</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>20</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>8</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>4</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>6</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>22</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>135.6</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>20</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>121</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>3</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>5</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>2</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>41</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>15</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>21</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS22" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT22" t="n">
-        <v>4</v>
-      </c>
       <c r="CU22" t="n">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="CV22" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="CW22" t="n">
         <v>0</v>
@@ -8446,13 +8446,13 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="DA22" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="DB22" t="n">
-        <v>61.904761904762</v>
+        <v>0</v>
       </c>
       <c r="DC22" t="n">
         <v>0</v>
@@ -8464,19 +8464,19 @@
         <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>642</v>
+        <v>11</v>
       </c>
       <c r="DG22" t="n">
-        <v>322</v>
+        <v>14</v>
       </c>
       <c r="DH22" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="DI22" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="DJ22" t="n">
-        <v>2163189</v>
+        <v>2534344</v>
       </c>
       <c r="DK22" t="inlineStr">
         <is>
@@ -8498,317 +8498,317 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Valentin Gendrey</t>
+          <t>Robin Hranáč</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>944899</v>
+        <v>957615</v>
       </c>
       <c r="E23" t="n">
-        <v>6.86</v>
+        <v>6.78</v>
       </c>
       <c r="F23" t="n">
+        <v>20</v>
+      </c>
+      <c r="G23" t="n">
+        <v>20</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1767</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.0995</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.33733962</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1227</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>843</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>87.448132780083</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>964</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>600</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>243</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>43</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>44.329896907216</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>62</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>130</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>87</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>55.769230769231</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>31</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>56.363636363636</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>56</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>55.445544554455</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>138</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>20</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN23" t="n">
         <v>6</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>57</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186</v>
-      </c>
-      <c r="L23" t="n">
-        <v>57</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0.56286112</v>
-      </c>
-      <c r="AB23" t="n">
+      <c r="BO23" t="n">
+        <v>22</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>135.6</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>20</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>121</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>5</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC23" t="n">
         <v>41</v>
       </c>
-      <c r="AC23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>96</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI23" t="n">
+      <c r="CD23" t="n">
+        <v>15</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>21</v>
+      </c>
+      <c r="CK23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS23" t="n">
+        <v>2</v>
+      </c>
+      <c r="CT23" t="n">
+        <v>4</v>
+      </c>
+      <c r="CU23" t="n">
+        <v>69</v>
+      </c>
+      <c r="CV23" t="n">
+        <v>45</v>
+      </c>
+      <c r="CW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ23" t="n">
+        <v>97</v>
+      </c>
+      <c r="DA23" t="n">
         <v>13</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>50</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>30</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>25</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>50</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>8</v>
-      </c>
-      <c r="BH23" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ23" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="BR23" t="n">
-        <v>5</v>
-      </c>
-      <c r="BS23" t="n">
-        <v>2</v>
-      </c>
-      <c r="BT23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR23" t="n">
-        <v>3</v>
-      </c>
-      <c r="CS23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT23" t="n">
-        <v>2</v>
-      </c>
-      <c r="CU23" t="n">
-        <v>7</v>
-      </c>
-      <c r="CV23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ23" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA23" t="n">
-        <v>0</v>
-      </c>
       <c r="DB23" t="n">
-        <v>0</v>
+        <v>61.904761904762</v>
       </c>
       <c r="DC23" t="n">
         <v>0</v>
@@ -8820,19 +8820,19 @@
         <v>0</v>
       </c>
       <c r="DF23" t="n">
-        <v>11</v>
+        <v>642</v>
       </c>
       <c r="DG23" t="n">
+        <v>322</v>
+      </c>
+      <c r="DH23" t="n">
         <v>14</v>
       </c>
-      <c r="DH23" t="n">
-        <v>0</v>
-      </c>
       <c r="DI23" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="DJ23" t="n">
-        <v>2534344</v>
+        <v>2163189</v>
       </c>
       <c r="DK23" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.13990154</v>
+        <v>0.13825603</v>
       </c>
       <c r="AB24" t="n">
         <v>1042</v>
